--- a/templates/Invoice.xlsx
+++ b/templates/Invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM\lib\PHPExcel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM-TEST\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2C31ED-F975-4968-83DE-FD865181BDC7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4820B38-15F7-4669-975D-E44FB951B2C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="9195" windowHeight="5460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>:</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Customer Reference</t>
+  </si>
+  <si>
+    <t>Calcul GPM</t>
   </si>
 </sst>
 </file>
@@ -226,7 +229,7 @@
     <numFmt numFmtId="169" formatCode="0.00_)"/>
     <numFmt numFmtId="170" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -302,6 +305,28 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -443,7 +468,7 @@
     <xf numFmtId="40" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="10" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -572,6 +597,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1128,7 +1157,7 @@
   <dimension ref="A1:K183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1142,7 +1171,8 @@
     <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="3"/>
     <col min="9" max="10" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="11.42578125" style="63"/>
+    <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1150,13 +1180,13 @@
       <c r="H1" s="20"/>
       <c r="I1" s="21"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H2" s="20"/>
       <c r="I2" s="23"/>
       <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H3" s="20"/>
@@ -1174,7 +1204,7 @@
       <c r="J4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="22"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E5" s="2"/>
@@ -1288,6 +1318,9 @@
       </c>
       <c r="G13" s="45" t="s">
         <v>7</v>
+      </c>
+      <c r="K13" s="63" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1299,6 +1332,7 @@
       <c r="F14" s="48"/>
       <c r="G14" s="47"/>
       <c r="H14" s="8"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="59"/>
@@ -1318,8 +1352,9 @@
       <c r="F16" s="7"/>
       <c r="G16" s="51"/>
       <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="64"/>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="59"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1328,8 +1363,9 @@
       <c r="F17" s="7"/>
       <c r="G17" s="51"/>
       <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="64"/>
+    </row>
+    <row r="18" spans="1:11" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="59"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1338,8 +1374,9 @@
       <c r="F18" s="7"/>
       <c r="G18" s="51"/>
       <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="64"/>
+    </row>
+    <row r="19" spans="1:11" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="59"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -1348,8 +1385,9 @@
       <c r="F19" s="7"/>
       <c r="G19" s="51"/>
       <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="64"/>
+    </row>
+    <row r="20" spans="1:11" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="59"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1358,8 +1396,9 @@
       <c r="F20" s="7"/>
       <c r="G20" s="51"/>
       <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="64"/>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="59"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1368,8 +1407,9 @@
       <c r="F21" s="7"/>
       <c r="G21" s="51"/>
       <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="64"/>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="59"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1378,8 +1418,9 @@
       <c r="F22" s="7"/>
       <c r="G22" s="51"/>
       <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="64"/>
+    </row>
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="59"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -1388,8 +1429,9 @@
       <c r="F23" s="7"/>
       <c r="G23" s="51"/>
       <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="64"/>
+    </row>
+    <row r="24" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="59"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1398,8 +1440,9 @@
       <c r="F24" s="7"/>
       <c r="G24" s="51"/>
       <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="64"/>
+    </row>
+    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="59"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -1408,8 +1451,9 @@
       <c r="F25" s="7"/>
       <c r="G25" s="51"/>
       <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="64"/>
+    </row>
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="59"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -1418,8 +1462,9 @@
       <c r="F26" s="7"/>
       <c r="G26" s="51"/>
       <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="64"/>
+    </row>
+    <row r="27" spans="1:11" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="59"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -1428,8 +1473,9 @@
       <c r="F27" s="7"/>
       <c r="G27" s="51"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K27" s="64"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="59"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -1439,7 +1485,7 @@
       <c r="G28" s="51"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="59"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -1449,7 +1495,7 @@
       <c r="G29" s="51"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="59"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -1459,7 +1505,7 @@
       <c r="G30" s="51"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="59"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -1469,7 +1515,7 @@
       <c r="G31" s="51"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="59"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -1479,7 +1525,7 @@
       <c r="G32" s="51"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="59"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -1489,7 +1535,7 @@
       <c r="G33" s="51"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="59"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -1499,7 +1545,7 @@
       <c r="G34" s="51"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="59"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1509,7 +1555,7 @@
       <c r="G35" s="51"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="59"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1519,7 +1565,7 @@
       <c r="G36" s="51"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="59"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -1529,7 +1575,7 @@
       <c r="G37" s="51"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="59"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -1539,7 +1585,7 @@
       <c r="G38" s="51"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -1549,7 +1595,7 @@
       <c r="G39" s="51"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -1559,7 +1605,7 @@
       <c r="G40" s="51"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -1569,7 +1615,7 @@
       <c r="G41" s="51"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -1578,8 +1624,9 @@
       <c r="F42" s="7"/>
       <c r="G42" s="51"/>
       <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K42" s="64"/>
+    </row>
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -1588,8 +1635,9 @@
       <c r="F43" s="7"/>
       <c r="G43" s="51"/>
       <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K43" s="64"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -1598,7 +1646,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="51"/>
     </row>
-    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -1607,8 +1655,9 @@
       <c r="F45" s="7"/>
       <c r="G45" s="51"/>
       <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K45" s="64"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -1617,7 +1666,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="51"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -1626,7 +1675,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="51"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -1635,7 +1684,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="51"/>
     </row>
-    <row r="49" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -1645,8 +1694,9 @@
       <c r="G49" s="51"/>
       <c r="H49" s="12"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K49" s="65"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -1655,7 +1705,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="51"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -1665,7 +1715,7 @@
       <c r="G51" s="51"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -1674,7 +1724,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="51"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -1683,7 +1733,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="51"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -1692,7 +1742,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="51"/>
     </row>
-    <row r="55" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -1702,8 +1752,9 @@
       <c r="G55" s="51"/>
       <c r="H55" s="12"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K55" s="65"/>
+    </row>
+    <row r="56" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -1713,8 +1764,9 @@
       <c r="G56" s="51"/>
       <c r="H56" s="12"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K56" s="65"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -1724,7 +1776,7 @@
       <c r="G57" s="51"/>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -1734,7 +1786,7 @@
       <c r="G58" s="51"/>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -1743,7 +1795,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="51"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -1752,7 +1804,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="51"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -1761,7 +1813,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="51"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -1770,7 +1822,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="51"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -1779,7 +1831,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="51"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>

--- a/templates/Invoice.xlsx
+++ b/templates/Invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM-TEST\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gpm\www\GPM-TEST\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4820B38-15F7-4669-975D-E44FB951B2C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3A6D6A-8ABE-4C17-B12B-F8513D6B4563}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="9195" windowHeight="5460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">InvoiceFR!$A$1:$G$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">InvoiceUSA!$A$1:$G$54</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:K183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I9" sqref="I8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1170,7 +1170,7 @@
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="3"/>
-    <col min="9" max="10" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="63"/>
     <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1249,8 +1249,8 @@
         <v>0</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="I8" s="52" t="s">
-        <v>48</v>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J8" s="52" t="s">
         <v>49</v>
@@ -1297,7 +1297,9 @@
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2919,7 +2921,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.78740157480314965" header="0.11811023622047245" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.59055118110236204" bottom="0.78740157480314998" header="0.118110236220472" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter xml:space="preserve">&amp;C&amp;"Times New Roman,Normal"&amp;8&amp;K04-024METCUT RECHERCHES SAS
